--- a/Chapter4/English/English_summary.xlsx
+++ b/Chapter4/English/English_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ceolin/Documents/GitHub2/Functionalism_Contrast_Change/Chapter4/English/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1FB9CB-2027-6940-A897-F0CA788A9985}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC0EA3F-2DDF-494C-9B56-6E163FAFFC3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="920" windowWidth="27640" windowHeight="15620" xr2:uid="{05E9B6ED-AB58-4141-BEF6-9BE56579A85B}"/>
   </bookViews>
@@ -1604,7 +1604,7 @@
   <dimension ref="A1:AA121"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+      <selection activeCell="K118" sqref="K118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5310,17 +5310,17 @@
       <c r="B114" s="4">
         <v>0.83699999999999997</v>
       </c>
-      <c r="C114" s="4">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="D114" s="4">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="E114" s="4">
-        <v>6.4000000000000003E-3</v>
-      </c>
-      <c r="F114" s="4">
-        <v>1.2E-2</v>
+      <c r="C114">
+        <v>3.9100000000000003E-2</v>
+      </c>
+      <c r="D114">
+        <v>9.2299999999999993E-2</v>
+      </c>
+      <c r="E114">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F114">
+        <v>1.21E-2</v>
       </c>
       <c r="G114" s="5">
         <v>0</v>
@@ -5333,17 +5333,17 @@
       <c r="B115" s="4">
         <v>0.79500000000000004</v>
       </c>
-      <c r="C115" s="4">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="D115" s="4">
-        <v>6.3E-2</v>
-      </c>
-      <c r="E115" s="4">
-        <v>6.1999999999999998E-3</v>
-      </c>
-      <c r="F115" s="4">
-        <v>1.12E-2</v>
+      <c r="C115">
+        <v>5.04E-2</v>
+      </c>
+      <c r="D115">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="E115">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="F115">
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="G115" s="5">
         <v>0</v>
@@ -5356,17 +5356,17 @@
       <c r="B116" s="4">
         <v>0.49099999999999999</v>
       </c>
-      <c r="C116" s="4">
-        <v>4.6899999999999997E-2</v>
-      </c>
-      <c r="D116" s="4">
-        <v>0.08</v>
-      </c>
-      <c r="E116" s="4">
-        <v>7.3000000000000001E-3</v>
-      </c>
-      <c r="F116" s="4">
-        <v>1.2200000000000001E-2</v>
+      <c r="C116">
+        <v>4.5699999999999998E-2</v>
+      </c>
+      <c r="D116">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E116">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="F116">
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="G116" s="5">
         <v>1</v>
@@ -5379,17 +5379,17 @@
       <c r="B117" s="4">
         <v>0.498</v>
       </c>
-      <c r="C117" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D117" s="4">
-        <v>2.4E-2</v>
-      </c>
-      <c r="E117" s="4">
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="F117" s="4">
-        <v>7.0000000000000001E-3</v>
+      <c r="C117">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="D117">
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="E117">
+        <v>1.8E-3</v>
+      </c>
+      <c r="F117">
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="G117" s="5">
         <v>1</v>
@@ -5402,17 +5402,17 @@
       <c r="B118" s="4">
         <v>0.73899999999999999</v>
       </c>
-      <c r="C118" s="4">
-        <v>4.7E-2</v>
-      </c>
-      <c r="D118" s="4">
-        <v>2.4E-2</v>
-      </c>
-      <c r="E118" s="4">
-        <v>5.3E-3</v>
-      </c>
-      <c r="F118" s="4">
-        <v>7.0000000000000001E-3</v>
+      <c r="C118">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="D118">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="E118">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="F118">
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="G118" s="5">
         <v>0</v>
@@ -5425,17 +5425,17 @@
       <c r="B119" s="4">
         <v>0.222</v>
       </c>
-      <c r="C119" s="4">
-        <v>1.17E-2</v>
-      </c>
-      <c r="D119" s="4">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="E119" s="4">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="F119" s="4">
-        <v>2.8999999999999998E-3</v>
+      <c r="C119">
+        <v>1.26E-2</v>
+      </c>
+      <c r="D119">
+        <v>1.03E-2</v>
+      </c>
+      <c r="E119">
+        <v>1.9E-3</v>
+      </c>
+      <c r="F119">
+        <v>3.8999999999999998E-3</v>
       </c>
       <c r="G119" s="5">
         <v>1</v>
@@ -5448,17 +5448,17 @@
       <c r="B120" s="4">
         <v>0.78400000000000003</v>
       </c>
-      <c r="C120" s="4">
-        <v>0.06</v>
-      </c>
-      <c r="D120" s="4">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="E120" s="4">
-        <v>7.1000000000000004E-3</v>
-      </c>
-      <c r="F120" s="4">
-        <v>1.0200000000000001E-2</v>
+      <c r="C120">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="D120">
+        <v>6.1600000000000002E-2</v>
+      </c>
+      <c r="E120">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="F120">
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="G120" s="5">
         <v>0</v>
@@ -5471,17 +5471,17 @@
       <c r="B121" s="4">
         <v>0.50900000000000001</v>
       </c>
-      <c r="C121" s="4">
-        <v>1.67E-2</v>
-      </c>
-      <c r="D121" s="4">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="E121" s="4">
+      <c r="C121">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D121">
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="E121">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F121" s="4">
-        <v>7.1999999999999998E-3</v>
+      <c r="F121">
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="G121" s="5">
         <v>1</v>
